--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630300.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630300.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDD8FEE-FA91-46FB-BB14-A06F9D67E540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84744719-13C6-46E8-9B71-0CFB0BB1F404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T062755.094" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-25T060252.372" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="90">
   <si>
     <t>Do Ty</t>
   </si>
@@ -257,6 +257,27 @@
   </si>
   <si>
     <t>TARMILAH</t>
+  </si>
+  <si>
+    <t>CV. TRUBUS JAYA TEKNIK</t>
+  </si>
+  <si>
+    <t>MOULDING</t>
+  </si>
+  <si>
+    <t>PT. SINAR NAGAMAS PACKINDO</t>
+  </si>
+  <si>
+    <t>LAKBAN AIR 2"</t>
+  </si>
+  <si>
+    <t>3039/2933/2934/2984</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>HAND SANITIZER CAIR</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1111,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1946,80 +1967,473 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>24001669</v>
+      </c>
+      <c r="D7">
+        <v>1201</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45342</v>
+      </c>
       <c r="F7" t="s">
         <v>79</v>
       </c>
       <c r="G7">
-        <v>76.62</v>
+        <v>75.94</v>
       </c>
       <c r="H7">
-        <v>160.82</v>
-      </c>
-      <c r="K7">
-        <v>-84.2</v>
+        <v>75.94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
       </c>
       <c r="L7" s="2">
-        <v>2541500</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-1300000</v>
+        <v>1200000</v>
       </c>
       <c r="N7" s="2">
-        <v>1241500</v>
+        <v>1200000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <v>15803</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7">
+        <v>2104188</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
       </c>
       <c r="AG7">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7">
+        <v>57416795</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP7">
+        <v>1201</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX7">
+        <v>24001057</v>
+      </c>
+      <c r="AY7">
+        <v>630300</v>
+      </c>
+      <c r="AZ7">
+        <v>1201.6303</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>24001713</v>
+      </c>
+      <c r="D8">
+        <v>1201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45343</v>
+      </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8">
-        <v>76.62</v>
+        <v>4.75</v>
       </c>
       <c r="H8">
-        <v>76.62</v>
+        <v>4.75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
       <c r="L8" s="2">
-        <v>1241500</v>
+        <v>75000</v>
       </c>
       <c r="N8" s="2">
-        <v>1241500</v>
+        <v>75000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>15803</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>2104583</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
       </c>
       <c r="AG8">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>57423514</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8">
+        <v>1201</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX8">
+        <v>24001227</v>
+      </c>
+      <c r="AY8">
+        <v>630300</v>
+      </c>
+      <c r="AZ8">
+        <v>1201.6303</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>24001715</v>
+      </c>
+      <c r="D9">
+        <v>1201</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45343</v>
+      </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G9">
-        <v>76.62</v>
-      </c>
-      <c r="H9">
-        <v>160.82</v>
+        <v>-0.44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>-84.2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2541500</v>
-      </c>
-      <c r="M9" s="2">
-        <v>-1300000</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1241500</v>
-      </c>
-      <c r="AG9">
-        <v>73</v>
+        <v>-0.44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9">
+        <v>2105025</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9">
+        <v>56165162</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45284</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9">
+        <v>1201</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX9">
+        <v>23002933</v>
+      </c>
+      <c r="AY9">
+        <v>630300</v>
+      </c>
+      <c r="AZ9">
+        <v>1201.6303</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="G10">
+        <v>156.87</v>
+      </c>
+      <c r="H10">
+        <v>241.51</v>
+      </c>
+      <c r="K10">
+        <v>-84.64</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3816500</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-1300000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2516500</v>
+      </c>
+      <c r="AG10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>156.87</v>
+      </c>
+      <c r="H11">
+        <v>156.87</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2516500</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2516500</v>
+      </c>
+      <c r="AG11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>156.87</v>
+      </c>
+      <c r="H12">
+        <v>241.51</v>
+      </c>
+      <c r="K12">
+        <v>-84.64</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3816500</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-1300000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2516500</v>
+      </c>
+      <c r="AG12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630300.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630300.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84744719-13C6-46E8-9B71-0CFB0BB1F404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{167A4329-DCE0-4DDC-B03F-2C8CB2B05A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-25T060252.372" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T060310.528" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="99">
   <si>
     <t>Do Ty</t>
   </si>
@@ -265,6 +265,27 @@
     <t>MOULDING</t>
   </si>
   <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>FACTORY SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>SUBSIDI SPSI FEB 2024</t>
+  </si>
+  <si>
     <t>PT. SINAR NAGAMAS PACKINDO</t>
   </si>
   <si>
@@ -274,10 +295,16 @@
     <t>3039/2933/2934/2984</t>
   </si>
   <si>
-    <t>TSANTIKA</t>
-  </si>
-  <si>
     <t>HAND SANITIZER CAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CV. KARUNIA ABADI</t>
+  </si>
+  <si>
+    <t>KABEL NYM 2X2.5</t>
+  </si>
+  <si>
+    <t>SNACK TRAINING 5S&amp;HANGER LINE</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1132,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2102,13 +2129,13 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>24001713</v>
+        <v>24001044</v>
       </c>
       <c r="D8">
         <v>1201</v>
@@ -2117,13 +2144,13 @@
         <v>45343</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8">
-        <v>4.75</v>
+        <v>12.66</v>
       </c>
       <c r="H8">
-        <v>4.75</v>
+        <v>12.66</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
@@ -2132,10 +2159,10 @@
         <v>55</v>
       </c>
       <c r="L8" s="2">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="N8" s="2">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -2156,16 +2183,16 @@
         <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="X8">
-        <v>2104583</v>
+        <v>2105661</v>
       </c>
       <c r="Y8" s="1">
-        <v>45343</v>
+        <v>45348</v>
       </c>
       <c r="Z8" t="s">
         <v>56</v>
@@ -2185,17 +2212,8 @@
       <c r="AF8" t="s">
         <v>56</v>
       </c>
-      <c r="AG8">
-        <v>5</v>
-      </c>
       <c r="AH8" t="s">
         <v>56</v>
-      </c>
-      <c r="AI8">
-        <v>57423514</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>81</v>
       </c>
       <c r="AL8" t="s">
         <v>56</v>
@@ -2204,7 +2222,7 @@
         <v>45343</v>
       </c>
       <c r="AN8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="AO8" t="s">
         <v>63</v>
@@ -2216,7 +2234,7 @@
         <v>64</v>
       </c>
       <c r="AR8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AU8" t="s">
         <v>56</v>
@@ -2224,8 +2242,8 @@
       <c r="AV8" t="s">
         <v>66</v>
       </c>
-      <c r="AX8">
-        <v>24001227</v>
+      <c r="AX8" t="s">
+        <v>56</v>
       </c>
       <c r="AY8">
         <v>630300</v>
@@ -2236,13 +2254,13 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>24001715</v>
+        <v>24001713</v>
       </c>
       <c r="D9">
         <v>1201</v>
@@ -2251,10 +2269,13 @@
         <v>45343</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G9">
-        <v>-0.44</v>
+        <v>4.75</v>
+      </c>
+      <c r="H9">
+        <v>4.75</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
@@ -2262,8 +2283,11 @@
       <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9">
-        <v>-0.44</v>
+      <c r="L9" s="2">
+        <v>75000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>75000</v>
       </c>
       <c r="O9" t="s">
         <v>56</v>
@@ -2284,22 +2308,22 @@
         <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="X9">
-        <v>2105025</v>
+        <v>2104583</v>
       </c>
       <c r="Y9" s="1">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="Z9" t="s">
         <v>56</v>
       </c>
       <c r="AA9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="s">
         <v>56</v>
@@ -2313,23 +2337,26 @@
       <c r="AF9" t="s">
         <v>56</v>
       </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
       <c r="AH9" t="s">
         <v>56</v>
       </c>
       <c r="AI9">
-        <v>56165162</v>
+        <v>57423514</v>
       </c>
       <c r="AJ9" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="AM9" s="1">
-        <v>45284</v>
+        <v>45343</v>
       </c>
       <c r="AN9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AO9" t="s">
         <v>63</v>
@@ -2341,7 +2368,7 @@
         <v>64</v>
       </c>
       <c r="AR9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AU9" t="s">
         <v>56</v>
@@ -2350,7 +2377,7 @@
         <v>66</v>
       </c>
       <c r="AX9">
-        <v>23002933</v>
+        <v>24001227</v>
       </c>
       <c r="AY9">
         <v>630300</v>
@@ -2360,80 +2387,464 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>24001715</v>
+      </c>
+      <c r="D10">
+        <v>1201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45343</v>
+      </c>
       <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>-0.44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>-0.44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10">
+        <v>2105025</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10">
+        <v>56165162</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45284</v>
+      </c>
+      <c r="AN10" t="s">
         <v>86</v>
       </c>
-      <c r="G10">
-        <v>156.87</v>
-      </c>
-      <c r="H10">
-        <v>241.51</v>
-      </c>
-      <c r="K10">
-        <v>-84.64</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3816500</v>
-      </c>
-      <c r="M10" s="2">
-        <v>-1300000</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2516500</v>
-      </c>
-      <c r="AG10">
-        <v>80</v>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10">
+        <v>1201</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX10">
+        <v>23002933</v>
+      </c>
+      <c r="AY10">
+        <v>630300</v>
+      </c>
+      <c r="AZ10">
+        <v>1201.6303</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>24001793</v>
+      </c>
+      <c r="D11">
+        <v>1201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45350</v>
+      </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G11">
-        <v>156.87</v>
+        <v>44.3</v>
       </c>
       <c r="H11">
-        <v>156.87</v>
+        <v>44.3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
       </c>
       <c r="L11" s="2">
-        <v>2516500</v>
+        <v>700000</v>
       </c>
       <c r="N11" s="2">
-        <v>2516500</v>
+        <v>700000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15803</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>2106054</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
       </c>
       <c r="AG11">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11">
+        <v>57112450</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11">
+        <v>1201</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX11">
+        <v>24001241</v>
+      </c>
+      <c r="AY11">
+        <v>630300</v>
+      </c>
+      <c r="AZ11">
+        <v>1201.6303</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>24001053</v>
+      </c>
+      <c r="D12">
+        <v>1201</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45351</v>
+      </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G12">
-        <v>156.87</v>
+        <v>113.03</v>
       </c>
       <c r="H12">
-        <v>241.51</v>
-      </c>
-      <c r="K12">
-        <v>-84.64</v>
+        <v>113.03</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
       </c>
       <c r="L12" s="2">
-        <v>3816500</v>
-      </c>
-      <c r="M12" s="2">
-        <v>-1300000</v>
+        <v>1786200</v>
       </c>
       <c r="N12" s="2">
-        <v>2516500</v>
-      </c>
-      <c r="AG12">
-        <v>80</v>
+        <v>1786200</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W12" t="s">
+        <v>85</v>
+      </c>
+      <c r="X12">
+        <v>2106437</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP12">
+        <v>1201</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY12">
+        <v>630300</v>
+      </c>
+      <c r="AZ12">
+        <v>1201.6303</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="G13">
+        <v>326.86</v>
+      </c>
+      <c r="H13">
+        <v>411.5</v>
+      </c>
+      <c r="K13">
+        <v>-84.64</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6502700</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-1300000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5202700</v>
+      </c>
+      <c r="AG13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <v>326.86</v>
+      </c>
+      <c r="H14">
+        <v>326.86</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5202700</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5202700</v>
+      </c>
+      <c r="AG14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15">
+        <v>326.86</v>
+      </c>
+      <c r="H15">
+        <v>411.5</v>
+      </c>
+      <c r="K15">
+        <v>-84.64</v>
+      </c>
+      <c r="L15" s="2">
+        <v>6502700</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-1300000</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5202700</v>
+      </c>
+      <c r="AG15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
